--- a/EmailSamples.xlsx
+++ b/EmailSamples.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -27,6 +27,12 @@
   <si>
     <t>emezuedaberechi@gmail.com</t>
   </si>
+  <si>
+    <t>iteoluwababatunde@gmail.com</t>
+  </si>
+  <si>
+    <t>nwaokorieglo@gmail.com</t>
+  </si>
 </sst>
 </file>
 
@@ -34,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -80,11 +86,80 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -93,7 +168,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,111 +217,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,31 +227,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,151 +359,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +432,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,30 +495,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -515,145 +521,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,13 +933,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -955,6 +961,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="carladavis1996@icloud.com"/>

--- a/EmailSamples.xlsx
+++ b/EmailSamples.xlsx
@@ -14,24 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>names</t>
   </si>
   <si>
     <t>masonrashford02@gmail.com</t>
   </si>
   <si>
+    <t>Mason</t>
+  </si>
+  <si>
     <t>carladavis1996@icloud.com</t>
+  </si>
+  <si>
+    <t>Carla</t>
   </si>
   <si>
     <t>emezuedaberechi@gmail.com</t>
   </si>
   <si>
-    <t>iteoluwababatunde@gmail.com</t>
-  </si>
-  <si>
-    <t>nwaokorieglo@gmail.com</t>
+    <t>Dabby</t>
   </si>
 </sst>
 </file>
@@ -39,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -86,13 +92,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,24 +118,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,9 +158,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,12 +181,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -160,21 +211,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -182,39 +218,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,37 +233,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,13 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,127 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +424,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,11 +451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,35 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,162 +507,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,42 +939,44 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" t="s">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
